--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\katalon\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E724886B-75B3-4C5E-BCBD-33C1D13826C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CFFC66-ECD8-4A91-8ACA-EB1CFFC065CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" tabRatio="858" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic_Actions" sheetId="25" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="480">
   <si>
     <t>username</t>
   </si>
@@ -1489,6 +1489,12 @@
   </si>
   <si>
     <t xml:space="preserve">Test case to verify the qstat job action </t>
+  </si>
+  <si>
+    <t>Test case to create bookmark with empty name</t>
+  </si>
+  <si>
+    <t>create empty name</t>
   </si>
 </sst>
 </file>
@@ -4177,7 +4183,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -6373,17 +6379,17 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6470,6 +6476,17 @@
         <v>296</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\katalon\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CFFC66-ECD8-4A91-8ACA-EB1CFFC065CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF8028-6277-43B9-AC00-ED46C301EF4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic_Actions" sheetId="25" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="496">
   <si>
     <t>username</t>
   </si>
@@ -69,9 +69,6 @@
     <t>FolderName</t>
   </si>
   <si>
-    <t>MyFolder</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -120,12 +117,6 @@
     <t>MyTestFolderWithLongName</t>
   </si>
   <si>
-    <t>My TestFolder</t>
-  </si>
-  <si>
-    <t>MyTest_Folder</t>
-  </si>
-  <si>
     <t>ToDeleteMyFolder</t>
   </si>
   <si>
@@ -147,21 +138,9 @@
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>Create folder with  space in its name</t>
-  </si>
-  <si>
-    <t>Create folder with long name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create folder name with special chars </t>
-  </si>
-  <si>
     <t>Create folder to delete</t>
   </si>
   <si>
-    <t>Create folder with valid name</t>
-  </si>
-  <si>
     <t>RemoteFile</t>
   </si>
   <si>
@@ -1495,6 +1474,75 @@
   </si>
   <si>
     <t>create empty name</t>
+  </si>
+  <si>
+    <t>Create folder with space after folder name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyFolderDemo  </t>
+  </si>
+  <si>
+    <t>Create folder with space before folder name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MyFolderSpace</t>
+  </si>
+  <si>
+    <t>MyFolderListView</t>
+  </si>
+  <si>
+    <t>Create folder with valid name list view</t>
+  </si>
+  <si>
+    <t>Create folder with valid name tile view</t>
+  </si>
+  <si>
+    <t>MyFolderTileView</t>
+  </si>
+  <si>
+    <t>Create folder with space in its name tile view</t>
+  </si>
+  <si>
+    <t>Create folder with  space in its name list view</t>
+  </si>
+  <si>
+    <t>Create folder with long name tile view</t>
+  </si>
+  <si>
+    <t>Create folder with long name list view</t>
+  </si>
+  <si>
+    <t>Create folder name with special chars tile view</t>
+  </si>
+  <si>
+    <t>Create folder name with special chars list view</t>
+  </si>
+  <si>
+    <t>My TestFolder ListView</t>
+  </si>
+  <si>
+    <t>My TestFolder TileView</t>
+  </si>
+  <si>
+    <t>MyDemoFolderWithLongName</t>
+  </si>
+  <si>
+    <t>Create folder name with unsupp special chars list view</t>
+  </si>
+  <si>
+    <t>Create folder name with unsupp special chars tile view</t>
+  </si>
+  <si>
+    <t>MyDemo\FolderList</t>
+  </si>
+  <si>
+    <t>MyDemo\FolderTile</t>
+  </si>
+  <si>
+    <t>MyTest_FolderListView</t>
+  </si>
+  <si>
+    <t>MyTest_FolderTileView</t>
   </si>
 </sst>
 </file>
@@ -1991,42 +2039,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -2055,83 +2103,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D6"/>
     </row>
@@ -2163,362 +2211,362 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>233</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2548,156 +2596,156 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2737,24 +2785,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -2762,16 +2810,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -2779,14 +2827,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -2794,14 +2842,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -2809,12 +2857,12 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2822,7 +2870,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -2831,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -2839,16 +2887,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -2856,16 +2904,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -2896,189 +2944,189 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3107,138 +3155,138 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
         <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3268,226 +3316,226 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>156</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3514,68 +3562,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3588,21 +3636,21 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3610,50 +3658,114 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B15" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -3680,42 +3792,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3744,269 +3856,269 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>428</v>
-      </c>
       <c r="E4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D8" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E8" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E9" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F9" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F10" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E12" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E13" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F13" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E14" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F14" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E15" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E16" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D17" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E17" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E18" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E19" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F19" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F20" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E21" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F21" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4034,58 +4146,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4109,42 +4221,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4196,156 +4308,156 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C11" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B14" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C14" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4377,13 +4489,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -4392,24 +4504,24 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4418,18 +4530,18 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -4438,21 +4550,21 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -4461,21 +4573,21 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -4484,21 +4596,21 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -4507,21 +4619,21 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -4530,21 +4642,21 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -4553,87 +4665,87 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>354</v>
-      </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G10" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>354</v>
-      </c>
       <c r="D11" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -4642,87 +4754,87 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G13" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" t="s">
         <v>352</v>
-      </c>
-      <c r="F14" t="s">
-        <v>356</v>
-      </c>
-      <c r="G14" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" t="s">
         <v>352</v>
-      </c>
-      <c r="F15" t="s">
-        <v>356</v>
-      </c>
-      <c r="G15" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -4731,18 +4843,18 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G16" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -4751,21 +4863,21 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G17" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -4774,21 +4886,21 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G18" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -4797,37 +4909,37 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G19" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G22" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -4863,244 +4975,244 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -5128,101 +5240,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5254,991 +5366,991 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F2" s="13">
         <v>120</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F3" s="13">
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F5" s="13">
         <v>120</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F6" s="13">
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F8" s="13">
         <v>120</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F9" s="13">
         <v>2</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F16" s="4">
         <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F19" s="4">
         <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F22" s="4">
         <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F30" s="4">
         <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G32" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F33" s="4">
         <v>120</v>
       </c>
       <c r="G33" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G35" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F36" s="4">
         <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F37" s="4">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G39" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G40" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G41" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>249</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="G42" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6274,98 +6386,98 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +6493,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -6394,97 +6506,97 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" t="s">
         <v>285</v>
       </c>
-      <c r="B4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" t="s">
-        <v>292</v>
-      </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" t="s">
         <v>289</v>
-      </c>
-      <c r="B6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\katalon\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF8028-6277-43B9-AC00-ED46C301EF4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF89F2-3807-4FB5-92FF-DDDD88F6733B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic_Actions" sheetId="25" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="498">
   <si>
     <t>username</t>
   </si>
@@ -1543,6 +1543,12 @@
   </si>
   <si>
     <t>MyTest_FolderTileView</t>
+  </si>
+  <si>
+    <t>Test case to create bookmark for shortcut folder</t>
+  </si>
+  <si>
+    <t>/stage/rohini/BS</t>
   </si>
 </sst>
 </file>
@@ -3638,7 +3644,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6491,10 +6497,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6502,6 +6508,7 @@
     <col min="1" max="1" width="48.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6599,6 +6606,20 @@
         <v>289</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" t="s">
+        <v>497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\katalon\AccessWeb 18.08.20\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7D2850-C5AB-429D-BE29-08032266D292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EFFE68-B412-4035-9747-B261845CD97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="3" activeTab="3" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="1" activeTab="10" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="26" r:id="rId1"/>
@@ -40,13 +40,16 @@
     <sheet name="FileViewerOps" sheetId="15" r:id="rId25"/>
     <sheet name="CreateFolder" sheetId="2" r:id="rId26"/>
     <sheet name="CreateFile" sheetId="3" r:id="rId27"/>
-    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId28"/>
-    <sheet name="RunningFolder" sheetId="6" r:id="rId29"/>
-    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId30"/>
+    <sheet name="Sheet2" sheetId="35" r:id="rId28"/>
+    <sheet name="Sheet3" sheetId="36" r:id="rId29"/>
+    <sheet name="Sheet4" sheetId="37" r:id="rId30"/>
+    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId31"/>
+    <sheet name="RunningFolder" sheetId="6" r:id="rId32"/>
+    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId33"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'JS-Latest'!$A$1:$G$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ProfileSubmissions!$A$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ProfileSubmissions!$A$1:$E$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="731">
   <si>
     <t>username</t>
   </si>
@@ -2253,6 +2256,12 @@
   </si>
   <si>
     <t>/stage/rohini/BS</t>
+  </si>
+  <si>
+    <t>OptiPro-NoMasterFile</t>
+  </si>
+  <si>
+    <t>Test to submit job using Optistruct - With No master files</t>
   </si>
 </sst>
 </file>
@@ -2763,7 +2772,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2936,10 +2945,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A10" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3272,19 +3281,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>729</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
         <v>669</v>
@@ -3292,19 +3301,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
         <v>669</v>
@@ -3312,59 +3321,59 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>688</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>672</v>
-      </c>
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>105</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>670</v>
@@ -3372,19 +3381,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>670</v>
@@ -3392,19 +3401,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>670</v>
@@ -3412,19 +3421,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>670</v>
@@ -3432,19 +3441,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>670</v>
@@ -3452,19 +3461,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>670</v>
@@ -3472,19 +3481,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>670</v>
@@ -3492,19 +3501,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>670</v>
@@ -3512,19 +3521,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>670</v>
@@ -3532,19 +3541,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>670</v>
@@ -3552,19 +3561,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>670</v>
@@ -3572,19 +3581,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>670</v>
@@ -3592,19 +3601,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>670</v>
@@ -3612,19 +3621,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>670</v>
@@ -3632,19 +3641,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>670</v>
@@ -3652,41 +3661,81 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>687</v>
+        <v>730</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>371</v>
+        <v>729</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>402</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>686</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>687</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>688</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>372</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>24</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F39" s="16" t="s">
         <v>670</v>
       </c>
     </row>
@@ -3715,9 +3764,11 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4071,25 +4122,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>729</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H14" t="s">
         <v>292</v>
@@ -4097,22 +4148,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
         <v>315</v>
@@ -4123,22 +4174,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
         <v>315</v>
@@ -4149,25 +4200,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="H17" t="s">
         <v>292</v>
@@ -4175,22 +4226,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
         <v>241</v>
@@ -4201,22 +4252,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
         <v>241</v>
@@ -4227,25 +4278,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>690</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>664</v>
+        <v>241</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -4253,22 +4304,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
         <v>664</v>
@@ -4279,22 +4330,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
         <v>664</v>
@@ -4305,25 +4356,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="H23" t="s">
         <v>292</v>
@@ -4331,22 +4382,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
         <v>689</v>
@@ -4357,27 +4408,53 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
         <v>689</v>
       </c>
       <c r="H25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>695</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>689</v>
+      </c>
+      <c r="H26" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8502,137 +8579,25 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D1FEC-B865-44FA-820C-57E3FB6789F2}">
-  <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382CCB5C-D430-4155-89C9-8351F964332E}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81503B49-E101-4423-8FFF-B866835D92EC}">
-  <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3608306-6CAD-407C-88AD-B01D63549252}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:K19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8933,6 +8898,154 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B274E36-B00F-4CBE-A1F8-6C3E5BB4FAD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D1FEC-B865-44FA-820C-57E3FB6789F2}">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81503B49-E101-4423-8FFF-B866835D92EC}">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCEF9F3-3285-454F-A311-2FAE775A4BE5}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF92D050"/>
@@ -9405,7 +9518,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
